--- a/data/GP/30034001/None/5_bc_param/Indata_GP_75_66_samples.xlsx
+++ b/data/GP/30034001/None/5_bc_param/Indata_GP_75_66_samples.xlsx
@@ -420,22 +420,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.519925570531437</v>
+        <v>3.202073329478956</v>
       </c>
       <c r="C2">
-        <v>0.9281417106156293</v>
+        <v>1.004260374050938</v>
       </c>
       <c r="D2">
-        <v>2.062489137309655</v>
+        <v>1.393641091353469</v>
       </c>
       <c r="E2">
-        <v>0.03157263740333068</v>
+        <v>0.03223399370487617</v>
       </c>
       <c r="F2">
-        <v>1.443402950248326</v>
+        <v>1.02305935570908</v>
       </c>
       <c r="G2">
-        <v>1326766.970086291</v>
+        <v>1360712.293456322</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -443,22 +443,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.005040526183516</v>
+        <v>1.888559629944568</v>
       </c>
       <c r="C3">
-        <v>1.054217445048581</v>
+        <v>1.102470786367749</v>
       </c>
       <c r="D3">
-        <v>2.946381731791831</v>
+        <v>2.193911631908319</v>
       </c>
       <c r="E3">
-        <v>0.03932993141051096</v>
+        <v>0.04395906010932329</v>
       </c>
       <c r="F3">
-        <v>0.8052772705792969</v>
+        <v>1.262397452886613</v>
       </c>
       <c r="G3">
-        <v>1439800.977884078</v>
+        <v>1052389.951141374</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -466,22 +466,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.731660282445004</v>
+        <v>3.300617433242854</v>
       </c>
       <c r="C4">
-        <v>1.080321884701133</v>
+        <v>0.9853326800688499</v>
       </c>
       <c r="D4">
-        <v>1.853015449786667</v>
+        <v>2.624786363301159</v>
       </c>
       <c r="E4">
-        <v>0.05538830922314161</v>
+        <v>0.04350513518124909</v>
       </c>
       <c r="F4">
-        <v>0.9060863995987942</v>
+        <v>1.020846591960145</v>
       </c>
       <c r="G4">
-        <v>1238124.360417934</v>
+        <v>1473383.525102114</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -489,22 +489,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.743979271933439</v>
+        <v>4.388733320865482</v>
       </c>
       <c r="C5">
-        <v>1.075383862373675</v>
+        <v>1.142577321798188</v>
       </c>
       <c r="D5">
-        <v>1.695297485205926</v>
+        <v>1.448308727565411</v>
       </c>
       <c r="E5">
-        <v>0.04384830516417484</v>
+        <v>0.03147924601777575</v>
       </c>
       <c r="F5">
-        <v>1.41372590840697</v>
+        <v>1.381637431767081</v>
       </c>
       <c r="G5">
-        <v>835238.4084084028</v>
+        <v>1775755.340834229</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,22 +512,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.145754615876083</v>
+        <v>3.450431634587234</v>
       </c>
       <c r="C6">
-        <v>1.006287508421585</v>
+        <v>1.038067148238628</v>
       </c>
       <c r="D6">
-        <v>2.89162177465859</v>
+        <v>1.262920562238287</v>
       </c>
       <c r="E6">
-        <v>0.04059594074023846</v>
+        <v>0.05382762311513965</v>
       </c>
       <c r="F6">
-        <v>1.261663275812388</v>
+        <v>1.499419781407211</v>
       </c>
       <c r="G6">
-        <v>1444874.497950888</v>
+        <v>966064.8284172113</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -535,22 +535,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4.414029041792293</v>
+        <v>4.031499053438288</v>
       </c>
       <c r="C7">
-        <v>1.205689474353306</v>
+        <v>1.255293433220595</v>
       </c>
       <c r="D7">
-        <v>1.215575537760196</v>
+        <v>1.151623414396213</v>
       </c>
       <c r="E7">
-        <v>0.03908340709224298</v>
+        <v>0.05024798095772197</v>
       </c>
       <c r="F7">
-        <v>1.40213789460292</v>
+        <v>0.9515432377777837</v>
       </c>
       <c r="G7">
-        <v>1683398.970970578</v>
+        <v>1706889.915715629</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -558,22 +558,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.873802824348334</v>
+        <v>4.859385595802406</v>
       </c>
       <c r="C8">
-        <v>1.044781821081329</v>
+        <v>1.057203007085752</v>
       </c>
       <c r="D8">
-        <v>1.15052459331041</v>
+        <v>1.664881648160595</v>
       </c>
       <c r="E8">
-        <v>0.03568793605532293</v>
+        <v>0.03483380523616159</v>
       </c>
       <c r="F8">
-        <v>1.330096052849964</v>
+        <v>1.408817373283679</v>
       </c>
       <c r="G8">
-        <v>1125980.093902504</v>
+        <v>1753050.046171478</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -581,22 +581,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.82939508865168</v>
+        <v>3.693765102696498</v>
       </c>
       <c r="C9">
-        <v>1.011527513889727</v>
+        <v>1.243037790965393</v>
       </c>
       <c r="D9">
-        <v>2.738585046225932</v>
+        <v>1.832918089813333</v>
       </c>
       <c r="E9">
-        <v>0.03674737229329942</v>
+        <v>0.0356668599348019</v>
       </c>
       <c r="F9">
-        <v>1.343170462963712</v>
+        <v>1.240980996382711</v>
       </c>
       <c r="G9">
-        <v>1111857.378339497</v>
+        <v>1793781.749563327</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -604,22 +604,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.668132018157295</v>
+        <v>3.016094588569253</v>
       </c>
       <c r="C10">
-        <v>1.030958546473291</v>
+        <v>1.018498966703275</v>
       </c>
       <c r="D10">
-        <v>2.829186896792342</v>
+        <v>2.56163307146076</v>
       </c>
       <c r="E10">
-        <v>0.05679758559353813</v>
+        <v>0.04131567832278424</v>
       </c>
       <c r="F10">
-        <v>1.006203049509633</v>
+        <v>1.320871492872032</v>
       </c>
       <c r="G10">
-        <v>1032185.282719931</v>
+        <v>1329438.873099248</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -627,22 +627,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.822797029202884</v>
+        <v>2.755927370249436</v>
       </c>
       <c r="C11">
-        <v>1.244246534384641</v>
+        <v>1.100301982708337</v>
       </c>
       <c r="D11">
-        <v>2.698300637201859</v>
+        <v>1.719002202068831</v>
       </c>
       <c r="E11">
-        <v>0.03019485145557728</v>
+        <v>0.04630749326979865</v>
       </c>
       <c r="F11">
-        <v>1.167028320402816</v>
+        <v>0.8853449099500298</v>
       </c>
       <c r="G11">
-        <v>1849333.110284116</v>
+        <v>1343138.861363698</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -650,22 +650,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.433921402532834</v>
+        <v>3.857545954915674</v>
       </c>
       <c r="C12">
-        <v>0.9932377303161924</v>
+        <v>0.9783476379746517</v>
       </c>
       <c r="D12">
-        <v>2.773849420567131</v>
+        <v>1.276845849026217</v>
       </c>
       <c r="E12">
-        <v>0.04190640107260642</v>
+        <v>0.03976125579704487</v>
       </c>
       <c r="F12">
-        <v>1.088080157936955</v>
+        <v>1.149121251003361</v>
       </c>
       <c r="G12">
-        <v>1283837.28934425</v>
+        <v>1332677.466699837</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -673,22 +673,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.390787161967144</v>
+        <v>2.394676397671626</v>
       </c>
       <c r="C13">
-        <v>1.222089825730373</v>
+        <v>1.208858188261384</v>
       </c>
       <c r="D13">
-        <v>2.170856918661886</v>
+        <v>2.576054530515429</v>
       </c>
       <c r="E13">
-        <v>0.05641617221269173</v>
+        <v>0.05102634549831633</v>
       </c>
       <c r="F13">
-        <v>0.8265662829534962</v>
+        <v>1.125412212682497</v>
       </c>
       <c r="G13">
-        <v>1718944.227284434</v>
+        <v>1361914.260466596</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -696,22 +696,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.940233401429392</v>
+        <v>3.58155845165604</v>
       </c>
       <c r="C14">
-        <v>1.139361499978213</v>
+        <v>1.091826565504519</v>
       </c>
       <c r="D14">
-        <v>1.455755934973346</v>
+        <v>2.128378924517273</v>
       </c>
       <c r="E14">
-        <v>0.03324448832624258</v>
+        <v>0.03461329351816404</v>
       </c>
       <c r="F14">
-        <v>1.474573388947077</v>
+        <v>0.8479431985910146</v>
       </c>
       <c r="G14">
-        <v>1575306.537689255</v>
+        <v>1784402.204394069</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -719,22 +719,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.283770964366505</v>
+        <v>1.827797917578615</v>
       </c>
       <c r="C15">
-        <v>1.000794642081501</v>
+        <v>0.9860414459209558</v>
       </c>
       <c r="D15">
-        <v>2.853964173076886</v>
+        <v>2.524871082284818</v>
       </c>
       <c r="E15">
-        <v>0.04479763022314369</v>
+        <v>0.04326512729808839</v>
       </c>
       <c r="F15">
-        <v>1.331858035940849</v>
+        <v>0.9373275619686999</v>
       </c>
       <c r="G15">
-        <v>1130287.441077611</v>
+        <v>1132218.156883952</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -742,22 +742,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.235255263352878</v>
+        <v>2.601498546918289</v>
       </c>
       <c r="C16">
-        <v>1.082930312696677</v>
+        <v>1.127863556253027</v>
       </c>
       <c r="D16">
-        <v>2.923885313883479</v>
+        <v>2.949105053176241</v>
       </c>
       <c r="E16">
-        <v>0.03816267724716468</v>
+        <v>0.04686630854903157</v>
       </c>
       <c r="F16">
-        <v>1.045910809301208</v>
+        <v>1.064578025650985</v>
       </c>
       <c r="G16">
-        <v>1998279.822921578</v>
+        <v>1492581.180677762</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -765,22 +765,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.942930553589496</v>
+        <v>3.272259439494454</v>
       </c>
       <c r="C17">
-        <v>1.144291628229596</v>
+        <v>1.021295417073957</v>
       </c>
       <c r="D17">
-        <v>2.283602707405607</v>
+        <v>2.390205406154952</v>
       </c>
       <c r="E17">
-        <v>0.04005956683015072</v>
+        <v>0.05082605613776938</v>
       </c>
       <c r="F17">
-        <v>0.9459436858543316</v>
+        <v>1.359819711009832</v>
       </c>
       <c r="G17">
-        <v>1326113.020717539</v>
+        <v>1219230.750861636</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -788,22 +788,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.178834622063098</v>
+        <v>2.453960748081145</v>
       </c>
       <c r="C18">
-        <v>1.060206596031555</v>
+        <v>1.172568919329543</v>
       </c>
       <c r="D18">
-        <v>2.979549094223407</v>
+        <v>2.253043550033573</v>
       </c>
       <c r="E18">
-        <v>0.0320170674448691</v>
+        <v>0.03871556770248907</v>
       </c>
       <c r="F18">
-        <v>1.04320233585698</v>
+        <v>1.22951289380645</v>
       </c>
       <c r="G18">
-        <v>2029379.556547953</v>
+        <v>1382251.59777504</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -811,22 +811,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.022896768099486</v>
+        <v>2.882941675055736</v>
       </c>
       <c r="C19">
-        <v>1.252051632854985</v>
+        <v>1.06780679324843</v>
       </c>
       <c r="D19">
-        <v>1.399739233344399</v>
+        <v>2.99095062021632</v>
       </c>
       <c r="E19">
-        <v>0.04714509065387775</v>
+        <v>0.05351543993260285</v>
       </c>
       <c r="F19">
-        <v>1.381956544061698</v>
+        <v>1.459360840345987</v>
       </c>
       <c r="G19">
-        <v>954009.6091345992</v>
+        <v>1205674.264837639</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -834,22 +834,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.557701745793607</v>
+        <v>2.162017934049693</v>
       </c>
       <c r="C20">
-        <v>0.9639076016767218</v>
+        <v>1.23582148601705</v>
       </c>
       <c r="D20">
-        <v>1.046342570032872</v>
+        <v>1.67060820794927</v>
       </c>
       <c r="E20">
-        <v>0.03837062743279924</v>
+        <v>0.03925352119055264</v>
       </c>
       <c r="F20">
-        <v>1.424700926165191</v>
+        <v>0.9108218594802774</v>
       </c>
       <c r="G20">
-        <v>1111279.58886924</v>
+        <v>1384583.253107036</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -857,22 +857,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.685208071165266</v>
+        <v>1.783321458436955</v>
       </c>
       <c r="C21">
-        <v>1.092613378465309</v>
+        <v>1.071677677519335</v>
       </c>
       <c r="D21">
-        <v>1.209393884352191</v>
+        <v>2.342519088514418</v>
       </c>
       <c r="E21">
-        <v>0.04560431414250993</v>
+        <v>0.03291693401930309</v>
       </c>
       <c r="F21">
-        <v>1.198515439624638</v>
+        <v>1.076030365077301</v>
       </c>
       <c r="G21">
-        <v>813083.8464233018</v>
+        <v>1239507.368648431</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -880,22 +880,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.443926470079267</v>
+        <v>2.831376159558185</v>
       </c>
       <c r="C22">
-        <v>0.9427701771827051</v>
+        <v>1.197504307955051</v>
       </c>
       <c r="D22">
-        <v>1.564989270863247</v>
+        <v>1.311398378966744</v>
       </c>
       <c r="E22">
-        <v>0.03720673946567585</v>
+        <v>0.05228717809866634</v>
       </c>
       <c r="F22">
-        <v>0.8873328808361308</v>
+        <v>0.859351947386392</v>
       </c>
       <c r="G22">
-        <v>1365676.689049335</v>
+        <v>1344416.039108835</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -903,22 +903,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.061952358469807</v>
+        <v>4.309987257429912</v>
       </c>
       <c r="C23">
-        <v>0.9509251305948018</v>
+        <v>1.032211232192477</v>
       </c>
       <c r="D23">
-        <v>2.629103214743316</v>
+        <v>1.215050926183322</v>
       </c>
       <c r="E23">
-        <v>0.04636349810205114</v>
+        <v>0.05242139738521538</v>
       </c>
       <c r="F23">
-        <v>1.135489298011306</v>
+        <v>0.9636750660551656</v>
       </c>
       <c r="G23">
-        <v>1525401.016930428</v>
+        <v>1459651.742019234</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -926,22 +926,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.010612695016688</v>
+        <v>3.359798168201416</v>
       </c>
       <c r="C24">
-        <v>0.9871392617751833</v>
+        <v>0.9383643268497261</v>
       </c>
       <c r="D24">
-        <v>1.796531351890136</v>
+        <v>1.728667462435948</v>
       </c>
       <c r="E24">
-        <v>0.02917422307018653</v>
+        <v>0.02930175879871425</v>
       </c>
       <c r="F24">
-        <v>1.10671903686146</v>
+        <v>1.441698338327905</v>
       </c>
       <c r="G24">
-        <v>1373639.025222925</v>
+        <v>1276090.959250171</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -949,22 +949,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.057384850495171</v>
+        <v>3.521687809453766</v>
       </c>
       <c r="C25">
-        <v>1.066113456203494</v>
+        <v>1.08472284985167</v>
       </c>
       <c r="D25">
-        <v>1.632225344032797</v>
+        <v>1.183869331337741</v>
       </c>
       <c r="E25">
-        <v>0.04987291408471392</v>
+        <v>0.02957112260249036</v>
       </c>
       <c r="F25">
-        <v>0.9237498715688728</v>
+        <v>0.9238835395124164</v>
       </c>
       <c r="G25">
-        <v>1307466.391385554</v>
+        <v>1580025.333256544</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -972,22 +972,22 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>4.815570502486525</v>
+        <v>3.761798764966707</v>
       </c>
       <c r="C26">
-        <v>1.168353762958813</v>
+        <v>1.154690628080166</v>
       </c>
       <c r="D26">
-        <v>2.047407397518054</v>
+        <v>2.458755693779002</v>
       </c>
       <c r="E26">
-        <v>0.03283761028161866</v>
+        <v>0.04261660169851655</v>
       </c>
       <c r="F26">
-        <v>1.062383198129264</v>
+        <v>1.30906412296638</v>
       </c>
       <c r="G26">
-        <v>2194244.863926785</v>
+        <v>1687142.16082528</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -995,22 +995,22 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>4.319250383090317</v>
+        <v>1.925675992520094</v>
       </c>
       <c r="C27">
-        <v>0.9357666102193715</v>
+        <v>1.166585784122739</v>
       </c>
       <c r="D27">
-        <v>1.09514170450071</v>
+        <v>1.56473505426482</v>
       </c>
       <c r="E27">
-        <v>0.03757915221292248</v>
+        <v>0.04299525171812505</v>
       </c>
       <c r="F27">
-        <v>1.077067356067503</v>
+        <v>1.19686712031232</v>
       </c>
       <c r="G27">
-        <v>1403381.714840042</v>
+        <v>1037203.865086474</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1018,22 +1018,22 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>2.457451943699348</v>
+        <v>4.695589293937405</v>
       </c>
       <c r="C28">
-        <v>1.103327793502009</v>
+        <v>0.9284014634173953</v>
       </c>
       <c r="D28">
-        <v>2.561349978422478</v>
+        <v>1.868375886116417</v>
       </c>
       <c r="E28">
-        <v>0.05071148967451817</v>
+        <v>0.04468953335056548</v>
       </c>
       <c r="F28">
-        <v>1.292773688877932</v>
+        <v>1.453859015572129</v>
       </c>
       <c r="G28">
-        <v>1171704.871225231</v>
+        <v>1383441.601496004</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1041,22 +1041,22 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>2.664936284375103</v>
+        <v>2.01184953991679</v>
       </c>
       <c r="C29">
-        <v>1.174376058620763</v>
+        <v>1.182078713377858</v>
       </c>
       <c r="D29">
-        <v>1.710599396924299</v>
+        <v>1.516379389895304</v>
       </c>
       <c r="E29">
-        <v>0.04700834026348656</v>
+        <v>0.03420732291669573</v>
       </c>
       <c r="F29">
-        <v>1.179942027135547</v>
+        <v>0.9479821567974551</v>
       </c>
       <c r="G29">
-        <v>1234954.874617384</v>
+        <v>1288175.548699936</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1064,22 +1064,22 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>4.585328883441667</v>
+        <v>2.528344095268258</v>
       </c>
       <c r="C30">
-        <v>1.228759768171771</v>
+        <v>0.9911176834449509</v>
       </c>
       <c r="D30">
-        <v>2.414092512478074</v>
+        <v>2.723208738847629</v>
       </c>
       <c r="E30">
-        <v>0.03349370097947887</v>
+        <v>0.04564876291722503</v>
       </c>
       <c r="F30">
-        <v>1.140846076721305</v>
+        <v>1.107250586781911</v>
       </c>
       <c r="G30">
-        <v>2278080.694160325</v>
+        <v>1244418.237128053</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1087,22 +1087,22 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>3.753460881185053</v>
+        <v>2.213477114304978</v>
       </c>
       <c r="C31">
-        <v>0.9832205563851234</v>
+        <v>1.079179288839728</v>
       </c>
       <c r="D31">
-        <v>1.578885787966457</v>
+        <v>1.415122493967381</v>
       </c>
       <c r="E31">
-        <v>0.04790261631742596</v>
+        <v>0.0547063683685882</v>
       </c>
       <c r="F31">
-        <v>1.065772716136546</v>
+        <v>0.9759620104741676</v>
       </c>
       <c r="G31">
-        <v>1315767.014621034</v>
+        <v>983602.9359478996</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1110,22 +1110,22 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>2.976741863803231</v>
+        <v>4.53614967355994</v>
       </c>
       <c r="C32">
-        <v>1.024188717086598</v>
+        <v>1.051071159844879</v>
       </c>
       <c r="D32">
-        <v>1.765857897839057</v>
+        <v>2.17708386187409</v>
       </c>
       <c r="E32">
-        <v>0.05380789517043615</v>
+        <v>0.03766848831479446</v>
       </c>
       <c r="F32">
-        <v>1.01619215881458</v>
+        <v>0.8781588985011819</v>
       </c>
       <c r="G32">
-        <v>1172574.839602042</v>
+        <v>1945611.351776159</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1133,22 +1133,22 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>2.589355766081751</v>
+        <v>4.491400727499142</v>
       </c>
       <c r="C33">
-        <v>1.23935139699847</v>
+        <v>1.23614340094825</v>
       </c>
       <c r="D33">
-        <v>1.750683920311125</v>
+        <v>2.653981306528661</v>
       </c>
       <c r="E33">
-        <v>0.04771826255298943</v>
+        <v>0.03542442725053343</v>
       </c>
       <c r="F33">
-        <v>0.9941370712721093</v>
+        <v>1.050810350206989</v>
       </c>
       <c r="G33">
-        <v>1388092.028074452</v>
+        <v>2334057.8035675</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1156,22 +1156,22 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>4.464086923744519</v>
+        <v>4.65029232241975</v>
       </c>
       <c r="C34">
-        <v>1.185540740753294</v>
+        <v>0.9955006498782087</v>
       </c>
       <c r="D34">
-        <v>2.348326232041819</v>
+        <v>1.591528327028022</v>
       </c>
       <c r="E34">
-        <v>0.05524555215843302</v>
+        <v>0.04095655981324115</v>
       </c>
       <c r="F34">
-        <v>1.434181696015247</v>
+        <v>0.8316901400699662</v>
       </c>
       <c r="G34">
-        <v>1642352.773206002</v>
+        <v>1745417.343713511</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1179,22 +1179,22 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>4.076267125625451</v>
+        <v>3.395982492981072</v>
       </c>
       <c r="C35">
-        <v>1.115394345816967</v>
+        <v>0.9572249880003408</v>
       </c>
       <c r="D35">
-        <v>1.389983777227269</v>
+        <v>2.299655795084001</v>
       </c>
       <c r="E35">
-        <v>0.0341917504645851</v>
+        <v>0.04739815626960571</v>
       </c>
       <c r="F35">
-        <v>1.155377763418927</v>
+        <v>0.8185486739388658</v>
       </c>
       <c r="G35">
-        <v>1679274.413262003</v>
+        <v>1451761.669123058</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1202,22 +1202,22 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>3.841333145778727</v>
+        <v>3.940540561709752</v>
       </c>
       <c r="C36">
-        <v>1.212437632246354</v>
+        <v>1.203019707473582</v>
       </c>
       <c r="D36">
-        <v>2.599349932988021</v>
+        <v>1.462254890418424</v>
       </c>
       <c r="E36">
-        <v>0.04934301823596385</v>
+        <v>0.04758081529594795</v>
       </c>
       <c r="F36">
-        <v>1.227252519650868</v>
+        <v>1.310821070543902</v>
       </c>
       <c r="G36">
-        <v>1769671.070682932</v>
+        <v>1502324.255846708</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1225,22 +1225,22 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>3.141453893215703</v>
+        <v>2.913569048912607</v>
       </c>
       <c r="C37">
-        <v>1.247811083648856</v>
+        <v>0.9639170067064842</v>
       </c>
       <c r="D37">
-        <v>1.960605644690734</v>
+        <v>2.834589781616685</v>
       </c>
       <c r="E37">
-        <v>0.03521924591999329</v>
+        <v>0.03062198835713527</v>
       </c>
       <c r="F37">
-        <v>1.188144919255852</v>
+        <v>1.477314840602658</v>
       </c>
       <c r="G37">
-        <v>1689178.513708564</v>
+        <v>1377020.307016797</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1248,22 +1248,22 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>2.157538250691394</v>
+        <v>4.165189809951991</v>
       </c>
       <c r="C38">
-        <v>0.9682355975808391</v>
+        <v>1.21681999542786</v>
       </c>
       <c r="D38">
-        <v>1.437149314485207</v>
+        <v>2.00758041257861</v>
       </c>
       <c r="E38">
-        <v>0.04101855099334349</v>
+        <v>0.03013994446292534</v>
       </c>
       <c r="F38">
-        <v>1.274433674501151</v>
+        <v>1.116782330898897</v>
       </c>
       <c r="G38">
-        <v>883765.4916173709</v>
+        <v>2085718.894910426</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1271,22 +1271,22 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>2.929392628688294</v>
+        <v>3.789724574827334</v>
       </c>
       <c r="C39">
-        <v>1.117609937675288</v>
+        <v>1.125219358569727</v>
       </c>
       <c r="D39">
-        <v>2.258305498845313</v>
+        <v>2.400082700724946</v>
       </c>
       <c r="E39">
-        <v>0.05473752374103462</v>
+        <v>0.03834062367813881</v>
       </c>
       <c r="F39">
-        <v>1.239612706498981</v>
+        <v>1.036071018085393</v>
       </c>
       <c r="G39">
-        <v>1227584.583529954</v>
+        <v>1831546.190518144</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1294,22 +1294,22 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>2.526385814675938</v>
+        <v>3.622931543115424</v>
       </c>
       <c r="C40">
-        <v>1.134398980217609</v>
+        <v>1.062902082682884</v>
       </c>
       <c r="D40">
-        <v>1.248373916691578</v>
+        <v>1.07002754654947</v>
       </c>
       <c r="E40">
-        <v>0.04317957218726992</v>
+        <v>0.03363334717472878</v>
       </c>
       <c r="F40">
-        <v>0.9364837465159059</v>
+        <v>1.482422052466389</v>
       </c>
       <c r="G40">
-        <v>1228076.882721187</v>
+        <v>1298360.180650517</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1317,22 +1317,22 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>4.770548893750062</v>
+        <v>2.347576790163756</v>
       </c>
       <c r="C41">
-        <v>1.20623328930562</v>
+        <v>1.040612110426679</v>
       </c>
       <c r="D41">
-        <v>2.235891676559041</v>
+        <v>2.114154922323971</v>
       </c>
       <c r="E41">
-        <v>0.05277874542606088</v>
+        <v>0.05169803792098752</v>
       </c>
       <c r="F41">
-        <v>1.352984672817488</v>
+        <v>1.281529055183934</v>
       </c>
       <c r="G41">
-        <v>1828643.914429094</v>
+        <v>988254.3285692867</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1340,22 +1340,22 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>3.343356252680604</v>
+        <v>4.747306126297463</v>
       </c>
       <c r="C42">
-        <v>1.217594875274143</v>
+        <v>0.9445181713696593</v>
       </c>
       <c r="D42">
-        <v>1.844549330802375</v>
+        <v>2.217529935821275</v>
       </c>
       <c r="E42">
-        <v>0.03036285540804692</v>
+        <v>0.04018825760537613</v>
       </c>
       <c r="F42">
-        <v>1.461913250841951</v>
+        <v>0.9808014578946095</v>
       </c>
       <c r="G42">
-        <v>1650329.524790384</v>
+        <v>1741502.928161753</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1363,22 +1363,22 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>4.504205903073894</v>
+        <v>2.454990295458704</v>
       </c>
       <c r="C43">
-        <v>1.100399693053216</v>
+        <v>1.139239899422045</v>
       </c>
       <c r="D43">
-        <v>2.12394662126506</v>
+        <v>1.915536632807681</v>
       </c>
       <c r="E43">
-        <v>0.04255908273634423</v>
+        <v>0.04993070111743116</v>
       </c>
       <c r="F43">
-        <v>1.369904852906365</v>
+        <v>1.271964471852834</v>
       </c>
       <c r="G43">
-        <v>1716037.558843638</v>
+        <v>1098085.437375471</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1386,22 +1386,22 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>2.253330058502259</v>
+        <v>4.43374989881088</v>
       </c>
       <c r="C44">
-        <v>1.046045673188292</v>
+        <v>1.009724417539865</v>
       </c>
       <c r="D44">
-        <v>1.29938194794824</v>
+        <v>2.812605547563209</v>
       </c>
       <c r="E44">
-        <v>0.03627119788572952</v>
+        <v>0.03796904012184819</v>
       </c>
       <c r="F44">
-        <v>0.8689789306557927</v>
+        <v>1.389806011792975</v>
       </c>
       <c r="G44">
-        <v>1169288.099717461</v>
+        <v>1751927.605291593</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1409,22 +1409,22 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>1.907069265386646</v>
+        <v>2.261346288418332</v>
       </c>
       <c r="C45">
-        <v>1.106845809538219</v>
+        <v>1.192605266637717</v>
       </c>
       <c r="D45">
-        <v>1.172151561725785</v>
+        <v>1.344844540733034</v>
       </c>
       <c r="E45">
-        <v>0.05429969465902848</v>
+        <v>0.05567092654667417</v>
       </c>
       <c r="F45">
-        <v>1.390203909300158</v>
+        <v>1.398656457011568</v>
       </c>
       <c r="G45">
-        <v>685543.3211050602</v>
+        <v>839174.4884789361</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1432,22 +1432,22 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>2.102242097963917</v>
+        <v>2.013966820014725</v>
       </c>
       <c r="C46">
-        <v>0.9958646384909406</v>
+        <v>0.9465863552737336</v>
       </c>
       <c r="D46">
-        <v>1.329403737342753</v>
+        <v>1.618173485083771</v>
       </c>
       <c r="E46">
-        <v>0.04399122782830499</v>
+        <v>0.03699649243147556</v>
       </c>
       <c r="F46">
-        <v>0.8150390838154413</v>
+        <v>1.336558523063222</v>
       </c>
       <c r="G46">
-        <v>1037387.563720754</v>
+        <v>888188.0235719938</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1455,22 +1455,22 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>2.356068896848439</v>
+        <v>3.172816068930563</v>
       </c>
       <c r="C47">
-        <v>0.9796921088726661</v>
+        <v>1.212697124348357</v>
       </c>
       <c r="D47">
-        <v>2.202515169246176</v>
+        <v>2.056412120699375</v>
       </c>
       <c r="E47">
-        <v>0.05112237586033906</v>
+        <v>0.05424872009292427</v>
       </c>
       <c r="F47">
-        <v>0.8526700137814854</v>
+        <v>1.06718188551498</v>
       </c>
       <c r="G47">
-        <v>1162184.502649886</v>
+        <v>1473812.397644182</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1478,22 +1478,22 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>3.20121972699913</v>
+        <v>2.106109519225004</v>
       </c>
       <c r="C48">
-        <v>1.03994548372891</v>
+        <v>0.9313287488727898</v>
       </c>
       <c r="D48">
-        <v>1.020976978456612</v>
+        <v>2.908833669122062</v>
       </c>
       <c r="E48">
-        <v>0.05048406937583946</v>
+        <v>0.03307791729629101</v>
       </c>
       <c r="F48">
-        <v>1.450438338454697</v>
+        <v>1.168025393304619</v>
       </c>
       <c r="G48">
-        <v>929611.0887392211</v>
+        <v>1219497.388659497</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1501,22 +1501,22 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>1.775907531081908</v>
+        <v>1.696421211285118</v>
       </c>
       <c r="C49">
-        <v>1.124592639829459</v>
+        <v>1.249597756455737</v>
       </c>
       <c r="D49">
-        <v>2.691314597491949</v>
+        <v>1.1172966661959</v>
       </c>
       <c r="E49">
-        <v>0.03215255610676353</v>
+        <v>0.03167731139446849</v>
       </c>
       <c r="F49">
-        <v>0.9657244628251291</v>
+        <v>1.175529474280357</v>
       </c>
       <c r="G49">
-        <v>1424442.062465696</v>
+        <v>1115567.1636206</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1524,22 +1524,22 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>4.65229230974348</v>
+        <v>1.730890827020414</v>
       </c>
       <c r="C50">
-        <v>1.1616334878316</v>
+        <v>1.086951559980677</v>
       </c>
       <c r="D50">
-        <v>2.11731207962041</v>
+        <v>1.759699019683297</v>
       </c>
       <c r="E50">
-        <v>0.05774065570417149</v>
+        <v>0.05798544963952866</v>
       </c>
       <c r="F50">
-        <v>1.031545746362371</v>
+        <v>1.253905692159247</v>
       </c>
       <c r="G50">
-        <v>1838969.615401282</v>
+        <v>757903.6501032407</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1547,22 +1547,22 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>3.904107425050598</v>
+        <v>2.117750839110224</v>
       </c>
       <c r="C51">
-        <v>1.060806796377956</v>
+        <v>1.119451985406059</v>
       </c>
       <c r="D51">
-        <v>1.335882168780617</v>
+        <v>1.972759711153249</v>
       </c>
       <c r="E51">
-        <v>0.0348502923765399</v>
+        <v>0.04919765108219819</v>
       </c>
       <c r="F51">
-        <v>0.8606521055726695</v>
+        <v>0.8649368084582215</v>
       </c>
       <c r="G51">
-        <v>1648945.010149313</v>
+        <v>1226810.210800698</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1570,22 +1570,22 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>4.025039628066859</v>
+        <v>4.226928586173432</v>
       </c>
       <c r="C52">
-        <v>1.027899619026069</v>
+        <v>1.230276942333641</v>
       </c>
       <c r="D52">
-        <v>2.662235383959226</v>
+        <v>2.331203662162771</v>
       </c>
       <c r="E52">
-        <v>0.04160195828669028</v>
+        <v>0.05642917597815685</v>
       </c>
       <c r="F52">
-        <v>0.8810201666254145</v>
+        <v>1.436053480271373</v>
       </c>
       <c r="G52">
-        <v>1823962.905209404</v>
+        <v>1607731.813033045</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1593,22 +1593,22 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>2.189065330027289</v>
+        <v>3.076475517513287</v>
       </c>
       <c r="C53">
-        <v>1.194759876537495</v>
+        <v>1.15597799025484</v>
       </c>
       <c r="D53">
-        <v>1.642055312433837</v>
+        <v>2.780709593035111</v>
       </c>
       <c r="E53">
-        <v>0.04284375159680462</v>
+        <v>0.05290506393861824</v>
       </c>
       <c r="F53">
-        <v>1.304177177968355</v>
+        <v>1.424141198797443</v>
       </c>
       <c r="G53">
-        <v>1102702.889748844</v>
+        <v>1342747.610564258</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1616,22 +1616,22 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>3.819971559774573</v>
+        <v>2.981923089241386</v>
       </c>
       <c r="C54">
-        <v>1.15141850107035</v>
+        <v>0.9533259992833927</v>
       </c>
       <c r="D54">
-        <v>1.907935536572116</v>
+        <v>1.054348587494742</v>
       </c>
       <c r="E54">
-        <v>0.05744633105231274</v>
+        <v>0.04210630959325814</v>
       </c>
       <c r="F54">
-        <v>1.25066255220552</v>
+        <v>0.8391900376768097</v>
       </c>
       <c r="G54">
-        <v>1395793.062469746</v>
+        <v>1154246.436026397</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1639,22 +1639,22 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>3.652430741667297</v>
+        <v>2.633131595395528</v>
       </c>
       <c r="C55">
-        <v>1.090436424369868</v>
+        <v>1.165052142839427</v>
       </c>
       <c r="D55">
-        <v>2.440179160276433</v>
+        <v>1.791203719369811</v>
       </c>
       <c r="E55">
-        <v>0.05326139257609958</v>
+        <v>0.05493286422698404</v>
       </c>
       <c r="F55">
-        <v>1.118797890508184</v>
+        <v>0.8997300536507965</v>
       </c>
       <c r="G55">
-        <v>1516632.692286909</v>
+        <v>1302818.47211707</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1662,22 +1662,22 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>3.622037545215434</v>
+        <v>3.997170375467395</v>
       </c>
       <c r="C56">
-        <v>0.9560879000645711</v>
+        <v>1.189197863321767</v>
       </c>
       <c r="D56">
-        <v>1.081922766306469</v>
+        <v>1.960203341739333</v>
       </c>
       <c r="E56">
-        <v>0.0458132764525685</v>
+        <v>0.04058324693969825</v>
       </c>
       <c r="F56">
-        <v>0.8413996341306104</v>
+        <v>1.346768570635672</v>
       </c>
       <c r="G56">
-        <v>1282257.964162828</v>
+        <v>1707651.89958541</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1685,22 +1685,22 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>3.319676561876967</v>
+        <v>4.606655679022376</v>
       </c>
       <c r="C57">
-        <v>1.233134012119845</v>
+        <v>1.223223988570583</v>
       </c>
       <c r="D57">
-        <v>2.310583027873909</v>
+        <v>2.488303410927232</v>
       </c>
       <c r="E57">
-        <v>0.04517719386246179</v>
+        <v>0.05696691849928701</v>
       </c>
       <c r="F57">
-        <v>1.219783350158629</v>
+        <v>1.006902759153437</v>
       </c>
       <c r="G57">
-        <v>1637485.829367309</v>
+        <v>2039341.28736925</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1708,22 +1708,22 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>2.645503497402945</v>
+        <v>3.126472697971831</v>
       </c>
       <c r="C58">
-        <v>1.017040837644515</v>
+        <v>1.149255187046294</v>
       </c>
       <c r="D58">
-        <v>2.510366273452501</v>
+        <v>2.08749830020727</v>
       </c>
       <c r="E58">
-        <v>0.05623707284639734</v>
+        <v>0.03089630818506738</v>
       </c>
       <c r="F58">
-        <v>1.116837097167755</v>
+        <v>1.153857687788169</v>
       </c>
       <c r="G58">
-        <v>1142541.584187317</v>
+        <v>1655625.763511054</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1731,22 +1731,22 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>4.746055999815805</v>
+        <v>4.779876170694427</v>
       </c>
       <c r="C59">
-        <v>0.972013462426863</v>
+        <v>1.010830419979891</v>
       </c>
       <c r="D59">
-        <v>2.532097452036555</v>
+        <v>2.675029382413989</v>
       </c>
       <c r="E59">
-        <v>0.03077205994436412</v>
+        <v>0.04847775667703218</v>
       </c>
       <c r="F59">
-        <v>0.9785420236737707</v>
+        <v>1.218229392235516</v>
       </c>
       <c r="G59">
-        <v>1954329.701831324</v>
+        <v>1749501.021266062</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1754,22 +1754,22 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>4.358942452354042</v>
+        <v>1.624094868360222</v>
       </c>
       <c r="C60">
-        <v>1.148018098358074</v>
+        <v>1.026726521752974</v>
       </c>
       <c r="D60">
-        <v>1.909180626066031</v>
+        <v>1.121554524540755</v>
       </c>
       <c r="E60">
-        <v>0.05163722590131736</v>
+        <v>0.04826475144165548</v>
       </c>
       <c r="F60">
-        <v>1.310641826900538</v>
+        <v>1.291284139116268</v>
       </c>
       <c r="G60">
-        <v>1590910.445799361</v>
+        <v>669915.7166728791</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1777,22 +1777,22 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>3.267499339245196</v>
+        <v>4.351978464983227</v>
       </c>
       <c r="C61">
-        <v>0.9489095731077318</v>
+        <v>0.9730563382500284</v>
       </c>
       <c r="D61">
-        <v>2.018607780911027</v>
+        <v>2.911001135271409</v>
       </c>
       <c r="E61">
-        <v>0.05202724709628481</v>
+        <v>0.03663025457361573</v>
       </c>
       <c r="F61">
-        <v>0.9002867996946604</v>
+        <v>0.8076412453399264</v>
       </c>
       <c r="G61">
-        <v>1275391.208814896</v>
+        <v>1935428.481404635</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -1800,22 +1800,22 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>4.166052891107765</v>
+        <v>4.197149617054023</v>
       </c>
       <c r="C62">
-        <v>1.160700385088977</v>
+        <v>1.04807456913297</v>
       </c>
       <c r="D62">
-        <v>2.798161569118875</v>
+        <v>2.424335233268394</v>
       </c>
       <c r="E62">
-        <v>0.05268792883498159</v>
+        <v>0.04925040237985166</v>
       </c>
       <c r="F62">
-        <v>1.490932490167478</v>
+        <v>1.372202380019127</v>
       </c>
       <c r="G62">
-        <v>1628371.815265572</v>
+        <v>1514570.060948564</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -1823,22 +1823,22 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>2.403912614198131</v>
+        <v>3.901609207846709</v>
       </c>
       <c r="C63">
-        <v>1.176207742570739</v>
+        <v>1.179486944493618</v>
       </c>
       <c r="D63">
-        <v>1.496213891140776</v>
+        <v>1.510459131344625</v>
       </c>
       <c r="E63">
-        <v>0.03438954833490247</v>
+        <v>0.03609424571769365</v>
       </c>
       <c r="F63">
-        <v>0.9507286698259803</v>
+        <v>1.139054756449611</v>
       </c>
       <c r="G63">
-        <v>1387017.838450546</v>
+        <v>1730350.378564662</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1846,22 +1846,22 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>2.750217842903226</v>
+        <v>2.65719883484002</v>
       </c>
       <c r="C64">
-        <v>1.187519437533207</v>
+        <v>0.9701116036206725</v>
       </c>
       <c r="D64">
-        <v>1.977452899828649</v>
+        <v>2.853043893937416</v>
       </c>
       <c r="E64">
-        <v>0.03964693641918159</v>
+        <v>0.04511387639483433</v>
       </c>
       <c r="F64">
-        <v>0.9819449505322682</v>
+        <v>1.189494310516144</v>
       </c>
       <c r="G64">
-        <v>1531642.633034185</v>
+        <v>1242180.890919016</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -1869,22 +1869,22 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>3.701547374937663</v>
+        <v>2.737263846543995</v>
       </c>
       <c r="C65">
-        <v>1.198152086427075</v>
+        <v>1.113292176536662</v>
       </c>
       <c r="D65">
-        <v>2.464995198285857</v>
+        <v>1.882075132735855</v>
       </c>
       <c r="E65">
-        <v>0.04908590670096427</v>
+        <v>0.05753417059056708</v>
       </c>
       <c r="F65">
-        <v>1.277312718723113</v>
+        <v>1.206489070169604</v>
       </c>
       <c r="G65">
-        <v>1649423.604382743</v>
+        <v>1081274.273560726</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -1892,22 +1892,22 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>4.535544087107501</v>
+        <v>3.651494965279661</v>
       </c>
       <c r="C66">
-        <v>0.9317150694248629</v>
+        <v>1.134330274248244</v>
       </c>
       <c r="D66">
-        <v>2.387859095007971</v>
+        <v>1.001814531192337</v>
       </c>
       <c r="E66">
-        <v>0.04863712484880134</v>
+        <v>0.04571461235029502</v>
       </c>
       <c r="F66">
-        <v>1.204801476062374</v>
+        <v>1.087080609502441</v>
       </c>
       <c r="G66">
-        <v>1505806.444539504</v>
+        <v>1380942.451861527</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1915,22 +1915,22 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>4.670666515144719</v>
+        <v>4.080921414218627</v>
       </c>
       <c r="C67">
-        <v>1.127219558051952</v>
+        <v>1.106483404418002</v>
       </c>
       <c r="D67">
-        <v>1.51914468933138</v>
+        <v>2.753833206407802</v>
       </c>
       <c r="E67">
-        <v>0.02956216394449315</v>
+        <v>0.05616238520169242</v>
       </c>
       <c r="F67">
-        <v>1.483173226652533</v>
+        <v>0.9979279999549524</v>
       </c>
       <c r="G67">
-        <v>1845255.71929013</v>
+        <v>1767827.290893937</v>
       </c>
     </row>
   </sheetData>
